--- a/artfynd/A 38862-2022.xlsx
+++ b/artfynd/A 38862-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89819259</v>
+        <v>89819263</v>
       </c>
       <c r="B2" t="n">
-        <v>56411</v>
+        <v>43464</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>101735</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Scardia boletella</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fabricius, 1794)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>584738.7995661208</v>
+        <v>584567.934929442</v>
       </c>
       <c r="R2" t="n">
-        <v>6695804.92004218</v>
+        <v>6696037.803599558</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -785,11 +785,6 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Hack</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -806,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89819263</v>
+        <v>89819259</v>
       </c>
       <c r="B3" t="n">
-        <v>43464</v>
+        <v>56411</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,25 +813,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>101735</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Scardia boletella</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fabricius, 1794)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -850,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>584567.934929442</v>
+        <v>584738.7995661208</v>
       </c>
       <c r="R3" t="n">
-        <v>6696037.803599558</v>
+        <v>6695804.92004218</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -911,6 +906,11 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Hack</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">

--- a/artfynd/A 38862-2022.xlsx
+++ b/artfynd/A 38862-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89819263</v>
+        <v>89819259</v>
       </c>
       <c r="B2" t="n">
-        <v>43464</v>
+        <v>56411</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>101735</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Scardia boletella</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fabricius, 1794)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>584567.934929442</v>
+        <v>584738.7995661208</v>
       </c>
       <c r="R2" t="n">
-        <v>6696037.803599558</v>
+        <v>6695804.92004218</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -785,6 +785,11 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Hack</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -801,10 +806,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89819259</v>
+        <v>89819263</v>
       </c>
       <c r="B3" t="n">
-        <v>56411</v>
+        <v>43464</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,25 +818,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>101735</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Scardia boletella</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fabricius, 1794)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -845,10 +850,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>584738.7995661208</v>
+        <v>584567.934929442</v>
       </c>
       <c r="R3" t="n">
-        <v>6695804.92004218</v>
+        <v>6696037.803599558</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -906,11 +911,6 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>Hack</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
